--- a/Modelagem - SenaiShop/Excel.xlsx
+++ b/Modelagem - SenaiShop/Excel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09C988-8FCE-4779-9175-56FA306B6322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Loja</t>
   </si>
@@ -34,9 +33,6 @@
     <t>endereço</t>
   </si>
   <si>
-    <t>funcionários</t>
-  </si>
-  <si>
     <t>idCategoria</t>
   </si>
   <si>
@@ -85,12 +81,6 @@
     <t>Quartos</t>
   </si>
   <si>
-    <t>Categoria/Sub</t>
-  </si>
-  <si>
-    <t>idSud</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -130,19 +120,25 @@
     <t>Pedido/Produto</t>
   </si>
   <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>José</t>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>SenaiShop1</t>
+  </si>
+  <si>
+    <t>SenaiShop2</t>
+  </si>
+  <si>
+    <t>SenaiShop3</t>
+  </si>
+  <si>
+    <t>Loja/Categoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,12 +148,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -224,28 +238,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,422 +547,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>789456123</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>789456123</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>392817654</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1597536842</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H20" s="3"/>
+      <c r="J20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3">
-        <v>789456123</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="12">
+        <v>3</v>
+      </c>
+      <c r="K24" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="3">
-        <v>42</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>20.25</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>3</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="4">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6</v>
-      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
